--- a/Documentation/Технические требования/Приложения/Профиль скважины/профиль_Vkr.xlsx
+++ b/Documentation/Технические требования/Приложения/Профиль скважины/профиль_Vkr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geofpro\Geofpro_Calculator\Documentation\Профиль скважины\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geofpro\Geofpro_Calculator\Documentation\Технические требования\Приложения\Профиль скважины\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C69DFB2-09AA-489E-B397-B97CB32BA54C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A1FA90-C22C-4DCA-BF26-B27D701A13C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A6876D9C-786C-40BD-B75D-419F059B5855}"/>
   </bookViews>
@@ -124,7 +124,7 @@
     <definedName name="TableHeaderRight">Sheet1!$B$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$23:$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2601,6 +2601,42 @@
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2621,42 +2657,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5615,344 +5615,344 @@
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="36" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="31" t="s">
         <v>682</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="35" t="s">
         <v>699</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="31" t="s">
         <v>667</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="36" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="37" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="36" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="37" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="36" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="31" t="s">
         <v>685</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="37" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>701</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="36" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="36" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="37" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="31" t="s">
         <v>688</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="37" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="31" t="s">
         <v>673</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="36" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="31" t="s">
         <v>674</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="36" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="31" t="s">
         <v>675</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="36" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="36" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="31" t="s">
         <v>692</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="36" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="40" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:20" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="36" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="31" t="s">
         <v>694</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:20" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="31" t="s">
         <v>679</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="36" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37" t="s">
+      <c r="H18" s="31"/>
+      <c r="I18" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:20" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="31" t="s">
         <v>680</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="38">
+      <c r="B19" s="31"/>
+      <c r="C19" s="37">
         <v>1.00011758</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="36" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="31" t="s">
         <v>679</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:20" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="31" t="s">
         <v>681</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="31" t="s">
         <v>697</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:20" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
@@ -5961,16 +5961,16 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="31" t="s">
         <v>698</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37" t="s">
+      <c r="H21" s="31"/>
+      <c r="I21" s="35" t="s">
         <v>700</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:20" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
@@ -6094,7 +6094,7 @@
       <c r="R24" s="27">
         <v>0</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="30">
         <f>-E24</f>
         <v>0</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="R25" s="21">
         <v>293.26</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="30">
         <f>-E25</f>
         <v>-15.729946014335001</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="R26" s="21">
         <v>333.12898055367299</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="30">
         <f t="shared" ref="T26:T89" si="0">-E26</f>
         <v>-38.199812766622998</v>
       </c>
@@ -6274,7 +6274,7 @@
       <c r="R27" s="21">
         <v>24.515831712958001</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="30">
         <f t="shared" si="0"/>
         <v>-63.619614504730002</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="R28" s="21">
         <v>63.990022797781002</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="30">
         <f t="shared" si="0"/>
         <v>-88.539079600413999</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="R29" s="21">
         <v>79.355095709235997</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="30">
         <f t="shared" si="0"/>
         <v>-112.728101687727</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="R30" s="21">
         <v>84.247636305046001</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="30">
         <f t="shared" si="0"/>
         <v>-137.427507494135</v>
       </c>
@@ -6514,7 +6514,7 @@
       <c r="R31" s="21">
         <v>88.865788225067007</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="30">
         <f t="shared" si="0"/>
         <v>-162.027140583338</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="R32" s="21">
         <v>95.011469777613001</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="30">
         <f t="shared" si="0"/>
         <v>-187.21614047223301</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="R33" s="21">
         <v>98.705357554619994</v>
       </c>
-      <c r="T33" s="45">
+      <c r="T33" s="30">
         <f t="shared" si="0"/>
         <v>-211.65444948814201</v>
       </c>
@@ -6694,7 +6694,7 @@
       <c r="R34" s="21">
         <v>100.41254454350999</v>
       </c>
-      <c r="T34" s="45">
+      <c r="T34" s="30">
         <f t="shared" si="0"/>
         <v>-236.53222045609101</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="R35" s="21">
         <v>101.530766267488</v>
       </c>
-      <c r="T35" s="45">
+      <c r="T35" s="30">
         <f t="shared" si="0"/>
         <v>-261.49881541318001</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="R36" s="21">
         <v>102.832397376426</v>
       </c>
-      <c r="T36" s="45">
+      <c r="T36" s="30">
         <f t="shared" si="0"/>
         <v>-286.16487789750198</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="R37" s="21">
         <v>104.100207316809</v>
       </c>
-      <c r="T37" s="45">
+      <c r="T37" s="30">
         <f t="shared" si="0"/>
         <v>-311.03134730485698</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="R38" s="21">
         <v>104.60026928892</v>
       </c>
-      <c r="T38" s="45">
+      <c r="T38" s="30">
         <f t="shared" si="0"/>
         <v>-336.39825518152497</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="R39" s="21">
         <v>104.97609189774801</v>
       </c>
-      <c r="T39" s="45">
+      <c r="T39" s="30">
         <f t="shared" si="0"/>
         <v>-361.47646826281198</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="R40" s="21">
         <v>105.28752345571201</v>
       </c>
-      <c r="T40" s="45">
+      <c r="T40" s="30">
         <f t="shared" si="0"/>
         <v>-386.03587965378898</v>
       </c>
@@ -7114,7 +7114,7 @@
       <c r="R41" s="21">
         <v>105.658341346182</v>
       </c>
-      <c r="T41" s="45">
+      <c r="T41" s="30">
         <f t="shared" si="0"/>
         <v>-411.715640641466</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="R42" s="21">
         <v>105.780480368385</v>
       </c>
-      <c r="T42" s="45">
+      <c r="T42" s="30">
         <f t="shared" si="0"/>
         <v>-435.57553867855199</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="R43" s="21">
         <v>105.79406153364999</v>
       </c>
-      <c r="T43" s="45">
+      <c r="T43" s="30">
         <f t="shared" si="0"/>
         <v>-459.55542333589898</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="R44" s="21">
         <v>106.13855254948</v>
       </c>
-      <c r="T44" s="45">
+      <c r="T44" s="30">
         <f t="shared" si="0"/>
         <v>-484.51535071017298</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="R45" s="21">
         <v>105.974943561467</v>
       </c>
-      <c r="T45" s="45">
+      <c r="T45" s="30">
         <f t="shared" si="0"/>
         <v>-510.51532188320698</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="R46" s="21">
         <v>105.77161468768701</v>
       </c>
-      <c r="T46" s="45">
+      <c r="T46" s="30">
         <f t="shared" si="0"/>
         <v>-535.41530750545201</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="R47" s="21">
         <v>105.769030705262</v>
       </c>
-      <c r="T47" s="45">
+      <c r="T47" s="30">
         <f t="shared" si="0"/>
         <v>-560.18530297766995</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="R48" s="21">
         <v>105.78015292569999</v>
       </c>
-      <c r="T48" s="45">
+      <c r="T48" s="30">
         <f t="shared" si="0"/>
         <v>-584.94529604145498</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="R49" s="27">
         <v>105.74452566302099</v>
       </c>
-      <c r="T49" s="45">
+      <c r="T49" s="30">
         <f t="shared" si="0"/>
         <v>-606.50529094901299</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="R50" s="29">
         <v>105.580102800834</v>
       </c>
-      <c r="T50" s="45">
+      <c r="T50" s="30">
         <f t="shared" si="0"/>
         <v>-619.975272092502</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="R51" s="27">
         <v>105.260235351585</v>
       </c>
-      <c r="T51" s="45">
+      <c r="T51" s="30">
         <f t="shared" si="0"/>
         <v>-642.41513779619697</v>
       </c>
@@ -7774,7 +7774,7 @@
       <c r="R52" s="21">
         <v>104.587773512192</v>
       </c>
-      <c r="T52" s="45">
+      <c r="T52" s="30">
         <f t="shared" si="0"/>
         <v>-666.94866358046602</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="R53" s="21">
         <v>103.699623705538</v>
       </c>
-      <c r="T53" s="45">
+      <c r="T53" s="30">
         <f t="shared" si="0"/>
         <v>-691.58164587505303</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="R54" s="21">
         <v>102.895101731</v>
       </c>
-      <c r="T54" s="45">
+      <c r="T54" s="30">
         <f t="shared" si="0"/>
         <v>-716.35812164674996</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="R55" s="21">
         <v>102.125909494133</v>
       </c>
-      <c r="T55" s="45">
+      <c r="T55" s="30">
         <f t="shared" si="0"/>
         <v>-741.18570519108005</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="R56" s="21">
         <v>101.228634646453</v>
       </c>
-      <c r="T56" s="45">
+      <c r="T56" s="30">
         <f t="shared" si="0"/>
         <v>-766.23189402097103</v>
       </c>
@@ -8074,7 +8074,7 @@
       <c r="R57" s="21">
         <v>100.223552544632</v>
       </c>
-      <c r="T57" s="45">
+      <c r="T57" s="30">
         <f t="shared" si="0"/>
         <v>-789.95519566616304</v>
       </c>
@@ -8134,7 +8134,7 @@
       <c r="R58" s="21">
         <v>99.180739206737996</v>
       </c>
-      <c r="T58" s="45">
+      <c r="T58" s="30">
         <f t="shared" si="0"/>
         <v>-814.55183130583805</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="R59" s="21">
         <v>98.412316070483996</v>
       </c>
-      <c r="T59" s="45">
+      <c r="T59" s="30">
         <f t="shared" si="0"/>
         <v>-839.11660512887602</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="R60" s="21">
         <v>97.924354594687998</v>
       </c>
-      <c r="T60" s="45">
+      <c r="T60" s="30">
         <f t="shared" si="0"/>
         <v>-862.83602324594199</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="R61" s="21">
         <v>97.576908538888006</v>
       </c>
-      <c r="T61" s="45">
+      <c r="T61" s="30">
         <f t="shared" si="0"/>
         <v>-886.73556520913996</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="R62" s="21">
         <v>97.372630530525001</v>
       </c>
-      <c r="T62" s="45">
+      <c r="T62" s="30">
         <f t="shared" si="0"/>
         <v>-910.05182341028205</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="R63" s="21">
         <v>97.261328957890996</v>
       </c>
-      <c r="T63" s="45">
+      <c r="T63" s="30">
         <f t="shared" si="0"/>
         <v>-932.67282282647602</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="R64" s="21">
         <v>97.179453688029</v>
       </c>
-      <c r="T64" s="45">
+      <c r="T64" s="30">
         <f t="shared" si="0"/>
         <v>-955.19487320116605</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="R65" s="21">
         <v>97.215216083968997</v>
       </c>
-      <c r="T65" s="45">
+      <c r="T65" s="30">
         <f t="shared" si="0"/>
         <v>-979.02901038399705</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="R66" s="21">
         <v>97.255241477140999</v>
       </c>
-      <c r="T66" s="45">
+      <c r="T66" s="30">
         <f t="shared" si="0"/>
         <v>-1000.95674927845</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="R67" s="21">
         <v>97.212528751784006</v>
       </c>
-      <c r="T67" s="45">
+      <c r="T67" s="30">
         <f t="shared" si="0"/>
         <v>-1022.12715800794</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="R68" s="21">
         <v>97.113062920841998</v>
       </c>
-      <c r="T68" s="45">
+      <c r="T68" s="30">
         <f t="shared" si="0"/>
         <v>-1042.3876147680201</v>
       </c>
@@ -8794,7 +8794,7 @@
       <c r="R69" s="21">
         <v>96.989851979676999</v>
       </c>
-      <c r="T69" s="45">
+      <c r="T69" s="30">
         <f t="shared" si="0"/>
         <v>-1062.8903118723099</v>
       </c>
@@ -8854,7 +8854,7 @@
       <c r="R70" s="21">
         <v>96.900150064654994</v>
       </c>
-      <c r="T70" s="45">
+      <c r="T70" s="30">
         <f t="shared" si="0"/>
         <v>-1083.74404860345</v>
       </c>
@@ -8914,7 +8914,7 @@
       <c r="R71" s="21">
         <v>96.828378783846006</v>
       </c>
-      <c r="T71" s="45">
+      <c r="T71" s="30">
         <f t="shared" si="0"/>
         <v>-1104.46222672094</v>
       </c>
@@ -8974,7 +8974,7 @@
       <c r="R72" s="21">
         <v>96.752531225151003</v>
       </c>
-      <c r="T72" s="45">
+      <c r="T72" s="30">
         <f t="shared" si="0"/>
         <v>-1124.5983355169301</v>
       </c>
@@ -9034,7 +9034,7 @@
       <c r="R73" s="21">
         <v>96.640294489797995</v>
       </c>
-      <c r="T73" s="45">
+      <c r="T73" s="30">
         <f t="shared" si="0"/>
         <v>-1143.2727645764801</v>
       </c>
@@ -9094,7 +9094,7 @@
       <c r="R74" s="21">
         <v>96.532386169149007</v>
       </c>
-      <c r="T74" s="45">
+      <c r="T74" s="30">
         <f t="shared" si="0"/>
         <v>-1161.9589874625101</v>
       </c>
@@ -9154,7 +9154,7 @@
       <c r="R75" s="21">
         <v>96.484389322669003</v>
       </c>
-      <c r="T75" s="45">
+      <c r="T75" s="30">
         <f t="shared" si="0"/>
         <v>-1180.71306480576</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="R76" s="21">
         <v>96.454546506086004</v>
       </c>
-      <c r="T76" s="45">
+      <c r="T76" s="30">
         <f t="shared" si="0"/>
         <v>-1198.6744231380701</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="R77" s="21">
         <v>96.454006287097997</v>
       </c>
-      <c r="T77" s="45">
+      <c r="T77" s="30">
         <f t="shared" si="0"/>
         <v>-1215.5579324205601</v>
       </c>
@@ -9334,7 +9334,7 @@
       <c r="R78" s="21">
         <v>96.488028380073004</v>
       </c>
-      <c r="T78" s="45">
+      <c r="T78" s="30">
         <f t="shared" si="0"/>
         <v>-1232.5147448744201</v>
       </c>
@@ -9394,7 +9394,7 @@
       <c r="R79" s="21">
         <v>96.551307570773005</v>
       </c>
-      <c r="T79" s="45">
+      <c r="T79" s="30">
         <f t="shared" si="0"/>
         <v>-1248.72064540822</v>
       </c>
@@ -9454,7 +9454,7 @@
       <c r="R80" s="21">
         <v>96.616154590459004</v>
       </c>
-      <c r="T80" s="45">
+      <c r="T80" s="30">
         <f t="shared" si="0"/>
         <v>-1264.2807248291299</v>
       </c>
@@ -9514,7 +9514,7 @@
       <c r="R81" s="21">
         <v>96.629974575812994</v>
       </c>
-      <c r="T81" s="45">
+      <c r="T81" s="30">
         <f t="shared" si="0"/>
         <v>-1279.9421677913001</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="R82" s="21">
         <v>96.651451172597007</v>
       </c>
-      <c r="T82" s="45">
+      <c r="T82" s="30">
         <f t="shared" si="0"/>
         <v>-1292.6629059398899</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="R83" s="21">
         <v>96.715540323370007</v>
       </c>
-      <c r="T83" s="45">
+      <c r="T83" s="30">
         <f t="shared" si="0"/>
         <v>-1305.8217795138701</v>
       </c>
@@ -9694,7 +9694,7 @@
       <c r="R84" s="21">
         <v>96.730350380668</v>
       </c>
-      <c r="T84" s="45">
+      <c r="T84" s="30">
         <f t="shared" si="0"/>
         <v>-1317.4080254359601</v>
       </c>
@@ -9754,7 +9754,7 @@
       <c r="R85" s="21">
         <v>96.700798841351002</v>
       </c>
-      <c r="T85" s="45">
+      <c r="T85" s="30">
         <f t="shared" si="0"/>
         <v>-1328.29396362333</v>
       </c>
@@ -9814,7 +9814,7 @@
       <c r="R86" s="21">
         <v>96.657449276128006</v>
       </c>
-      <c r="T86" s="45">
+      <c r="T86" s="30">
         <f t="shared" si="0"/>
         <v>-1338.36856763232</v>
       </c>
@@ -9874,7 +9874,7 @@
       <c r="R87" s="21">
         <v>96.598857070806005</v>
       </c>
-      <c r="T87" s="45">
+      <c r="T87" s="30">
         <f t="shared" si="0"/>
         <v>-1347.8428696166</v>
       </c>
@@ -9934,7 +9934,7 @@
       <c r="R88" s="21">
         <v>96.521901762545994</v>
       </c>
-      <c r="T88" s="45">
+      <c r="T88" s="30">
         <f t="shared" si="0"/>
         <v>-1356.3223349657501</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="R89" s="21">
         <v>96.412904125145005</v>
       </c>
-      <c r="T89" s="45">
+      <c r="T89" s="30">
         <f t="shared" si="0"/>
         <v>-1365.33555199139</v>
       </c>
@@ -10054,7 +10054,7 @@
       <c r="R90" s="21">
         <v>96.341468801984007</v>
       </c>
-      <c r="T90" s="45">
+      <c r="T90" s="30">
         <f t="shared" ref="T90:T153" si="1">-E90</f>
         <v>-1371.2122712411301</v>
       </c>
@@ -10114,7 +10114,7 @@
       <c r="R91" s="21">
         <v>96.274100199139994</v>
       </c>
-      <c r="T91" s="45">
+      <c r="T91" s="30">
         <f t="shared" si="1"/>
         <v>-1377.8928221106801</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="R92" s="21">
         <v>96.232560573811</v>
       </c>
-      <c r="T92" s="45">
+      <c r="T92" s="30">
         <f t="shared" si="1"/>
         <v>-1384.6194615136999</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="R93" s="21">
         <v>96.203424510144004</v>
       </c>
-      <c r="T93" s="45">
+      <c r="T93" s="30">
         <f t="shared" si="1"/>
         <v>-1391.3658657649801</v>
       </c>
@@ -10294,7 +10294,7 @@
       <c r="R94" s="21">
         <v>96.199954034778997</v>
       </c>
-      <c r="T94" s="45">
+      <c r="T94" s="30">
         <f t="shared" si="1"/>
         <v>-1397.9928225631199</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="R95" s="21">
         <v>96.217031439520994</v>
       </c>
-      <c r="T95" s="45">
+      <c r="T95" s="30">
         <f t="shared" si="1"/>
         <v>-1404.69580237021</v>
       </c>
@@ -10414,7 +10414,7 @@
       <c r="R96" s="21">
         <v>96.234666740413999</v>
       </c>
-      <c r="T96" s="45">
+      <c r="T96" s="30">
         <f t="shared" si="1"/>
         <v>-1411.42586986986</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="R97" s="21">
         <v>96.254669764773993</v>
       </c>
-      <c r="T97" s="45">
+      <c r="T97" s="30">
         <f t="shared" si="1"/>
         <v>-1418.0266584531801</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="R98" s="21">
         <v>96.279357793613997</v>
       </c>
-      <c r="T98" s="45">
+      <c r="T98" s="30">
         <f t="shared" si="1"/>
         <v>-1424.6194419593</v>
       </c>
@@ -10594,7 +10594,7 @@
       <c r="R99" s="21">
         <v>96.306620801728002</v>
       </c>
-      <c r="T99" s="45">
+      <c r="T99" s="30">
         <f t="shared" si="1"/>
         <v>-1431.23121284542</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="R100" s="21">
         <v>96.333403250393999</v>
       </c>
-      <c r="T100" s="45">
+      <c r="T100" s="30">
         <f t="shared" si="1"/>
         <v>-1437.95708808978</v>
       </c>
@@ -10714,7 +10714,7 @@
       <c r="R101" s="21">
         <v>96.343745447963997</v>
       </c>
-      <c r="T101" s="45">
+      <c r="T101" s="30">
         <f t="shared" si="1"/>
         <v>-1444.43599419203</v>
       </c>
@@ -10774,7 +10774,7 @@
       <c r="R102" s="21">
         <v>96.334112540874003</v>
       </c>
-      <c r="T102" s="45">
+      <c r="T102" s="30">
         <f t="shared" si="1"/>
         <v>-1450.97710190116</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="R103" s="21">
         <v>96.316202981047994</v>
       </c>
-      <c r="T103" s="45">
+      <c r="T103" s="30">
         <f t="shared" si="1"/>
         <v>-1457.40200465878</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="R104" s="21">
         <v>96.298554962514004</v>
       </c>
-      <c r="T104" s="45">
+      <c r="T104" s="30">
         <f t="shared" si="1"/>
         <v>-1463.7773018794301</v>
       </c>
@@ -10954,7 +10954,7 @@
       <c r="R105" s="27">
         <v>96.283988170480995</v>
       </c>
-      <c r="T105" s="45">
+      <c r="T105" s="30">
         <f t="shared" si="1"/>
         <v>-1470.48148277006</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="R106" s="29">
         <v>96.277562976732995</v>
       </c>
-      <c r="T106" s="45">
+      <c r="T106" s="30">
         <f t="shared" si="1"/>
         <v>-1474.49293344844</v>
       </c>
@@ -11074,7 +11074,7 @@
       <c r="R107" s="27">
         <v>96.275866869808993</v>
       </c>
-      <c r="T107" s="45">
+      <c r="T107" s="30">
         <f t="shared" si="1"/>
         <v>-1477.2915231714101</v>
       </c>
@@ -11134,7 +11134,7 @@
       <c r="R108" s="27">
         <v>96.284188591873004</v>
       </c>
-      <c r="T108" s="45">
+      <c r="T108" s="30">
         <f t="shared" si="1"/>
         <v>-1481.7912845579899</v>
       </c>
@@ -11194,7 +11194,7 @@
       <c r="R109" s="21">
         <v>96.287559134888994</v>
       </c>
-      <c r="T109" s="45">
+      <c r="T109" s="30">
         <f t="shared" si="1"/>
         <v>-1482.53095335129</v>
       </c>
@@ -11254,7 +11254,7 @@
       <c r="R110" s="21">
         <v>96.308314931127995</v>
       </c>
-      <c r="T110" s="45">
+      <c r="T110" s="30">
         <f t="shared" si="1"/>
         <v>-1485.30045894363</v>
       </c>
@@ -11314,7 +11314,7 @@
       <c r="R111" s="21">
         <v>96.331528084986999</v>
       </c>
-      <c r="T111" s="45">
+      <c r="T111" s="30">
         <f t="shared" si="1"/>
         <v>-1487.3858304821699</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="R112" s="21">
         <v>96.341868260379997</v>
       </c>
-      <c r="T112" s="45">
+      <c r="T112" s="30">
         <f t="shared" si="1"/>
         <v>-1488.19726577349</v>
       </c>
@@ -11434,7 +11434,7 @@
       <c r="R113" s="21">
         <v>96.383738822246997</v>
       </c>
-      <c r="T113" s="45">
+      <c r="T113" s="30">
         <f t="shared" si="1"/>
         <v>-1491.2854980731599</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="R114" s="21">
         <v>96.418194534912004</v>
       </c>
-      <c r="T114" s="45">
+      <c r="T114" s="30">
         <f t="shared" si="1"/>
         <v>-1493.65850593253</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="R115" s="21">
         <v>96.432181419486</v>
       </c>
-      <c r="T115" s="45">
+      <c r="T115" s="30">
         <f t="shared" si="1"/>
         <v>-1494.5808325687001</v>
       </c>
@@ -11614,7 +11614,7 @@
       <c r="R116" s="21">
         <v>96.487636375375999</v>
       </c>
-      <c r="T116" s="45">
+      <c r="T116" s="30">
         <f t="shared" si="1"/>
         <v>-1497.9510451149999</v>
       </c>
@@ -11674,7 +11674,7 @@
       <c r="R117" s="21">
         <v>96.515404059871997</v>
       </c>
-      <c r="T117" s="45">
+      <c r="T117" s="30">
         <f t="shared" si="1"/>
         <v>-1499.50323128019</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="R118" s="21">
         <v>96.548951558103994</v>
       </c>
-      <c r="T118" s="45">
+      <c r="T118" s="30">
         <f t="shared" si="1"/>
         <v>-1501.34267366328</v>
       </c>
@@ -11794,7 +11794,7 @@
       <c r="R119" s="21">
         <v>96.609971951134</v>
       </c>
-      <c r="T119" s="45">
+      <c r="T119" s="30">
         <f t="shared" si="1"/>
         <v>-1504.7369045793901</v>
       </c>
@@ -11854,7 +11854,7 @@
       <c r="R120" s="21">
         <v>96.669873444125002</v>
       </c>
-      <c r="T120" s="45">
+      <c r="T120" s="30">
         <f t="shared" si="1"/>
         <v>-1508.1311354955001</v>
       </c>
@@ -11914,7 +11914,7 @@
       <c r="R121" s="21">
         <v>96.728686405120996</v>
       </c>
-      <c r="T121" s="45">
+      <c r="T121" s="30">
         <f t="shared" si="1"/>
         <v>-1511.5253664116101</v>
       </c>
@@ -11974,7 +11974,7 @@
       <c r="R122" s="21">
         <v>96.786440117585997</v>
       </c>
-      <c r="T122" s="45">
+      <c r="T122" s="30">
         <f t="shared" si="1"/>
         <v>-1514.9195973277201</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="R123" s="21">
         <v>96.843162828198004</v>
       </c>
-      <c r="T123" s="45">
+      <c r="T123" s="30">
         <f t="shared" si="1"/>
         <v>-1518.3138282438399</v>
       </c>
@@ -12094,7 +12094,7 @@
       <c r="R124" s="21">
         <v>96.898881792146994</v>
       </c>
-      <c r="T124" s="45">
+      <c r="T124" s="30">
         <f t="shared" si="1"/>
         <v>-1521.7080591599499</v>
       </c>
@@ -12154,7 +12154,7 @@
       <c r="R125" s="21">
         <v>96.953623316081007</v>
       </c>
-      <c r="T125" s="45">
+      <c r="T125" s="30">
         <f t="shared" si="1"/>
         <v>-1525.1022900760599</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="R126" s="21">
         <v>97.007412798857999</v>
       </c>
-      <c r="T126" s="45">
+      <c r="T126" s="30">
         <f t="shared" si="1"/>
         <v>-1528.49652099217</v>
       </c>
@@ -12274,7 +12274,7 @@
       <c r="R127" s="21">
         <v>97.060274770217006</v>
       </c>
-      <c r="T127" s="45">
+      <c r="T127" s="30">
         <f t="shared" si="1"/>
         <v>-1531.89075190828</v>
       </c>
@@ -12334,7 +12334,7 @@
       <c r="R128" s="21">
         <v>97.112232927497999</v>
       </c>
-      <c r="T128" s="45">
+      <c r="T128" s="30">
         <f t="shared" si="1"/>
         <v>-1535.28498282439</v>
       </c>
@@ -12394,7 +12394,7 @@
       <c r="R129" s="21">
         <v>97.163310170523999</v>
       </c>
-      <c r="T129" s="45">
+      <c r="T129" s="30">
         <f t="shared" si="1"/>
         <v>-1538.67921374051</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="R130" s="21">
         <v>97.213528634746993</v>
       </c>
-      <c r="T130" s="45">
+      <c r="T130" s="30">
         <f t="shared" si="1"/>
         <v>-1542.07344465662</v>
       </c>
@@ -12514,7 +12514,7 @@
       <c r="R131" s="21">
         <v>97.262909722765997</v>
       </c>
-      <c r="T131" s="45">
+      <c r="T131" s="30">
         <f t="shared" si="1"/>
         <v>-1545.4676755727301</v>
       </c>
@@ -12574,7 +12574,7 @@
       <c r="R132" s="21">
         <v>97.311474134297001</v>
       </c>
-      <c r="T132" s="45">
+      <c r="T132" s="30">
         <f t="shared" si="1"/>
         <v>-1548.8619064888401</v>
       </c>
@@ -12634,7 +12634,7 @@
       <c r="R133" s="21">
         <v>97.359241894695003</v>
       </c>
-      <c r="T133" s="45">
+      <c r="T133" s="30">
         <f t="shared" si="1"/>
         <v>-1552.2561374049501</v>
       </c>
@@ -12694,7 +12694,7 @@
       <c r="R134" s="21">
         <v>97.406232382099006</v>
       </c>
-      <c r="T134" s="45">
+      <c r="T134" s="30">
         <f t="shared" si="1"/>
         <v>-1555.6503683210699</v>
       </c>
@@ -12754,7 +12754,7 @@
       <c r="R135" s="21">
         <v>97.452464353284</v>
       </c>
-      <c r="T135" s="45">
+      <c r="T135" s="30">
         <f t="shared" si="1"/>
         <v>-1559.0445992371799</v>
       </c>
@@ -12814,7 +12814,7 @@
       <c r="R136" s="21">
         <v>97.497955968287002</v>
       </c>
-      <c r="T136" s="45">
+      <c r="T136" s="30">
         <f t="shared" si="1"/>
         <v>-1562.4388301532899</v>
       </c>
@@ -12874,7 +12874,7 @@
       <c r="R137" s="21">
         <v>97.542724813871004</v>
       </c>
-      <c r="T137" s="45">
+      <c r="T137" s="30">
         <f t="shared" si="1"/>
         <v>-1565.8330610693999</v>
       </c>
@@ -12934,7 +12934,7 @@
       <c r="R138" s="21">
         <v>97.586787925902001</v>
       </c>
-      <c r="T138" s="45">
+      <c r="T138" s="30">
         <f t="shared" si="1"/>
         <v>-1569.22729198551</v>
       </c>
@@ -12994,7 +12994,7 @@
       <c r="R139" s="21">
         <v>97.630161810683006</v>
       </c>
-      <c r="T139" s="45">
+      <c r="T139" s="30">
         <f t="shared" si="1"/>
         <v>-1572.62152290162</v>
       </c>
@@ -13054,7 +13054,7 @@
       <c r="R140" s="21">
         <v>97.672862465305002</v>
       </c>
-      <c r="T140" s="45">
+      <c r="T140" s="30">
         <f t="shared" si="1"/>
         <v>-1576.01575381774</v>
       </c>
@@ -13114,7 +13114,7 @@
       <c r="R141" s="21">
         <v>97.714905397080997</v>
       </c>
-      <c r="T141" s="45">
+      <c r="T141" s="30">
         <f t="shared" si="1"/>
         <v>-1579.40998473385</v>
       </c>
@@ -13174,7 +13174,7 @@
       <c r="R142" s="21">
         <v>97.756305642084996</v>
       </c>
-      <c r="T142" s="45">
+      <c r="T142" s="30">
         <f t="shared" si="1"/>
         <v>-1582.80421564996</v>
       </c>
@@ -13234,7 +13234,7 @@
       <c r="R143" s="21">
         <v>97.797077782870005</v>
       </c>
-      <c r="T143" s="45">
+      <c r="T143" s="30">
         <f t="shared" si="1"/>
         <v>-1586.1984465660701</v>
       </c>
@@ -13294,7 +13294,7 @@
       <c r="R144" s="21">
         <v>97.837235965386</v>
       </c>
-      <c r="T144" s="45">
+      <c r="T144" s="30">
         <f t="shared" si="1"/>
         <v>-1589.5926774821801</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="R145" s="21">
         <v>97.876793915153002</v>
       </c>
-      <c r="T145" s="45">
+      <c r="T145" s="30">
         <f t="shared" si="1"/>
         <v>-1592.9869083983001</v>
       </c>
@@ -13414,7 +13414,7 @@
       <c r="R146" s="21">
         <v>97.915764952724004</v>
       </c>
-      <c r="T146" s="45">
+      <c r="T146" s="30">
         <f t="shared" si="1"/>
         <v>-1596.3811393144099</v>
       </c>
@@ -13474,7 +13474,7 @@
       <c r="R147" s="21">
         <v>97.954162008466994</v>
       </c>
-      <c r="T147" s="45">
+      <c r="T147" s="30">
         <f t="shared" si="1"/>
         <v>-1599.7753702305199</v>
       </c>
@@ -13534,7 +13534,7 @@
       <c r="R148" s="21">
         <v>97.991997636708007</v>
       </c>
-      <c r="T148" s="45">
+      <c r="T148" s="30">
         <f t="shared" si="1"/>
         <v>-1603.1696011466299</v>
       </c>
@@ -13594,7 +13594,7 @@
       <c r="R149" s="21">
         <v>98.029284029270002</v>
       </c>
-      <c r="T149" s="45">
+      <c r="T149" s="30">
         <f t="shared" si="1"/>
         <v>-1606.5638320627399</v>
       </c>
@@ -13654,7 +13654,7 @@
       <c r="R150" s="21">
         <v>98.066033028426006</v>
       </c>
-      <c r="T150" s="45">
+      <c r="T150" s="30">
         <f t="shared" si="1"/>
         <v>-1609.95806297885</v>
       </c>
@@ -13714,7 +13714,7 @@
       <c r="R151" s="21">
         <v>98.102256139304998</v>
       </c>
-      <c r="T151" s="45">
+      <c r="T151" s="30">
         <f t="shared" si="1"/>
         <v>-1613.35229389497</v>
       </c>
@@ -13774,7 +13774,7 @@
       <c r="R152" s="21">
         <v>98.137964541773002</v>
       </c>
-      <c r="T152" s="45">
+      <c r="T152" s="30">
         <f t="shared" si="1"/>
         <v>-1616.74652481108</v>
       </c>
@@ -13834,7 +13834,7 @@
       <c r="R153" s="21">
         <v>98.173169101823007</v>
       </c>
-      <c r="T153" s="45">
+      <c r="T153" s="30">
         <f t="shared" si="1"/>
         <v>-1620.14075572719</v>
       </c>
@@ -13894,7 +13894,7 @@
       <c r="R154" s="21">
         <v>98.207880382479004</v>
       </c>
-      <c r="T154" s="45">
+      <c r="T154" s="30">
         <f t="shared" ref="T154:T217" si="2">-E154</f>
         <v>-1623.5349866433</v>
       </c>
@@ -13954,7 +13954,7 @@
       <c r="R155" s="21">
         <v>98.242108654258999</v>
       </c>
-      <c r="T155" s="45">
+      <c r="T155" s="30">
         <f t="shared" si="2"/>
         <v>-1626.9292175594101</v>
       </c>
@@ -14014,7 +14014,7 @@
       <c r="R156" s="21">
         <v>98.264333338008996</v>
       </c>
-      <c r="T156" s="45">
+      <c r="T156" s="30">
         <f t="shared" si="2"/>
         <v>-1629.15870286534</v>
       </c>
@@ -14074,7 +14074,7 @@
       <c r="R157" s="21">
         <v>98.275746103008998</v>
       </c>
-      <c r="T157" s="45">
+      <c r="T157" s="30">
         <f t="shared" si="2"/>
         <v>-1630.31590895973</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="R158" s="21">
         <v>98.307360352798995</v>
       </c>
-      <c r="T158" s="45">
+      <c r="T158" s="30">
         <f t="shared" si="2"/>
         <v>-1633.60195789006</v>
       </c>
@@ -14194,7 +14194,7 @@
       <c r="R159" s="21">
         <v>98.336558037686999</v>
       </c>
-      <c r="T159" s="45">
+      <c r="T159" s="30">
         <f t="shared" si="2"/>
         <v>-1636.7590967640599</v>
       </c>
@@ -14254,7 +14254,7 @@
       <c r="R160" s="21">
         <v>98.363379616130004</v>
       </c>
-      <c r="T160" s="45">
+      <c r="T160" s="30">
         <f t="shared" si="2"/>
         <v>-1639.78665773273</v>
       </c>
@@ -14314,7 +14314,7 @@
       <c r="R161" s="21">
         <v>98.387865494986002</v>
       </c>
-      <c r="T161" s="45">
+      <c r="T161" s="30">
         <f t="shared" si="2"/>
         <v>-1642.68400035749</v>
       </c>
@@ -14374,7 +14374,7 @@
       <c r="R162" s="21">
         <v>98.410055985447997</v>
       </c>
-      <c r="T162" s="45">
+      <c r="T162" s="30">
         <f t="shared" si="2"/>
         <v>-1645.4505117456599</v>
       </c>
@@ -14434,7 +14434,7 @@
       <c r="R163" s="21">
         <v>98.429991261739005</v>
       </c>
-      <c r="T163" s="45">
+      <c r="T163" s="30">
         <f t="shared" si="2"/>
         <v>-1648.08560668007</v>
       </c>
@@ -14494,7 +14494,7 @@
       <c r="R164" s="21">
         <v>98.447711322470994</v>
       </c>
-      <c r="T164" s="45">
+      <c r="T164" s="30">
         <f t="shared" si="2"/>
         <v>-1650.5887277428999</v>
       </c>
@@ -14554,7 +14554,7 @@
       <c r="R165" s="21">
         <v>98.463255954583005</v>
       </c>
-      <c r="T165" s="45">
+      <c r="T165" s="30">
         <f t="shared" si="2"/>
         <v>-1652.95934543357</v>
       </c>
@@ -14614,7 +14614,7 @@
       <c r="R166" s="21">
         <v>98.476664699750998</v>
       </c>
-      <c r="T166" s="45">
+      <c r="T166" s="30">
         <f t="shared" si="2"/>
         <v>-1655.1969582807401</v>
       </c>
@@ -14674,7 +14674,7 @@
       <c r="R167" s="21">
         <v>98.487976823189001</v>
       </c>
-      <c r="T167" s="45">
+      <c r="T167" s="30">
         <f t="shared" si="2"/>
         <v>-1657.3010929484201</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="R168" s="21">
         <v>98.497231284730006</v>
       </c>
-      <c r="T168" s="45">
+      <c r="T168" s="30">
         <f t="shared" si="2"/>
         <v>-1659.27130433608</v>
       </c>
@@ -14794,7 +14794,7 @@
       <c r="R169" s="21">
         <v>98.504466712107003</v>
       </c>
-      <c r="T169" s="45">
+      <c r="T169" s="30">
         <f t="shared" si="2"/>
         <v>-1661.1071756727899</v>
       </c>
@@ -14854,7 +14854,7 @@
       <c r="R170" s="21">
         <v>98.509721376333005</v>
       </c>
-      <c r="T170" s="45">
+      <c r="T170" s="30">
         <f t="shared" si="2"/>
         <v>-1662.8083186054</v>
       </c>
@@ -14914,7 +14914,7 @@
       <c r="R171" s="21">
         <v>98.513033169085006</v>
       </c>
-      <c r="T171" s="45">
+      <c r="T171" s="30">
         <f t="shared" si="2"/>
         <v>-1664.37437328069</v>
       </c>
@@ -14974,7 +14974,7 @@
       <c r="R172" s="21">
         <v>98.514439582017999</v>
       </c>
-      <c r="T172" s="45">
+      <c r="T172" s="30">
         <f t="shared" si="2"/>
         <v>-1665.8050084214899</v>
       </c>
@@ -15034,7 +15034,7 @@
       <c r="R173" s="21">
         <v>98.513977687893004</v>
       </c>
-      <c r="T173" s="45">
+      <c r="T173" s="30">
         <f t="shared" si="2"/>
         <v>-1667.09992139677</v>
       </c>
@@ -15094,7 +15094,7 @@
       <c r="R174" s="21">
         <v>98.512500738537</v>
       </c>
-      <c r="T174" s="45">
+      <c r="T174" s="30">
         <f t="shared" si="2"/>
         <v>-1667.9514626806899</v>
       </c>
@@ -15154,7 +15154,7 @@
       <c r="R175" s="21">
         <v>98.511754606766999</v>
       </c>
-      <c r="T175" s="45">
+      <c r="T175" s="30">
         <f t="shared" si="2"/>
         <v>-1668.26406315738</v>
       </c>
@@ -15214,7 +15214,7 @@
       <c r="R176" s="21">
         <v>98.509083206198994</v>
       </c>
-      <c r="T176" s="45">
+      <c r="T176" s="30">
         <f t="shared" si="2"/>
         <v>-1669.3926270061199</v>
       </c>
@@ -15274,7 +15274,7 @@
       <c r="R177" s="21">
         <v>98.506446244884998</v>
       </c>
-      <c r="T177" s="45">
+      <c r="T177" s="30">
         <f t="shared" si="2"/>
         <v>-1670.5211908548499</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="R178" s="21">
         <v>98.503843061124002</v>
       </c>
-      <c r="T178" s="45">
+      <c r="T178" s="30">
         <f t="shared" si="2"/>
         <v>-1671.6497547035799</v>
       </c>
@@ -15394,7 +15394,7 @@
       <c r="R179" s="29">
         <v>98.501405015722</v>
       </c>
-      <c r="T179" s="45">
+      <c r="T179" s="30">
         <f t="shared" si="2"/>
         <v>-1672.72</v>
       </c>
@@ -15454,7 +15454,7 @@
       <c r="R180" s="21">
         <v>98.501273010058</v>
       </c>
-      <c r="T180" s="45">
+      <c r="T180" s="30">
         <f t="shared" si="2"/>
         <v>-1672.7783185523199</v>
       </c>
@@ -15514,7 +15514,7 @@
       <c r="R181" s="21">
         <v>98.500704316547001</v>
       </c>
-      <c r="T181" s="45">
+      <c r="T181" s="30">
         <f t="shared" si="2"/>
         <v>-1673.03</v>
       </c>
@@ -15574,7 +15574,7 @@
       <c r="R182" s="21">
         <v>98.498196163480003</v>
       </c>
-      <c r="T182" s="45">
+      <c r="T182" s="30">
         <f t="shared" si="2"/>
         <v>-1673.8657800390299</v>
       </c>
@@ -15634,7 +15634,7 @@
       <c r="R183" s="21">
         <v>98.493427222197994</v>
       </c>
-      <c r="T183" s="45">
+      <c r="T183" s="30">
         <f t="shared" si="2"/>
         <v>-1674.82034629542</v>
       </c>
@@ -15694,7 +15694,7 @@
       <c r="R184" s="21">
         <v>98.486955173165001</v>
       </c>
-      <c r="T184" s="45">
+      <c r="T184" s="30">
         <f t="shared" si="2"/>
         <v>-1675.63843134575</v>
       </c>
@@ -15754,7 +15754,7 @@
       <c r="R185" s="21">
         <v>98.478813294375996</v>
       </c>
-      <c r="T185" s="45">
+      <c r="T185" s="30">
         <f t="shared" si="2"/>
         <v>-1676.31986213544</v>
       </c>
@@ -15814,7 +15814,7 @@
       <c r="R186" s="21">
         <v>98.469034427994004</v>
       </c>
-      <c r="T186" s="45">
+      <c r="T186" s="30">
         <f t="shared" si="2"/>
         <v>-1676.86449451727</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="R187" s="21">
         <v>98.467855529106998</v>
       </c>
-      <c r="T187" s="45">
+      <c r="T187" s="30">
         <f t="shared" si="2"/>
         <v>-1676.9162478437499</v>
       </c>
@@ -15934,7 +15934,7 @@
       <c r="R188" s="21">
         <v>98.467189069781</v>
       </c>
-      <c r="T188" s="45">
+      <c r="T188" s="30">
         <f t="shared" si="2"/>
         <v>-1676.94480755883</v>
       </c>
@@ -15994,7 +15994,7 @@
       <c r="R189" s="21">
         <v>98.457746406520997</v>
       </c>
-      <c r="T189" s="45">
+      <c r="T189" s="30">
         <f t="shared" si="2"/>
         <v>-1677.2794599133399</v>
       </c>
@@ -16054,7 +16054,7 @@
       <c r="R190" s="21">
         <v>98.444910171825001</v>
       </c>
-      <c r="T190" s="45">
+      <c r="T190" s="30">
         <f t="shared" si="2"/>
         <v>-1677.5585210581501</v>
       </c>
@@ -16114,7 +16114,7 @@
       <c r="R191" s="21">
         <v>98.430541970641002</v>
       </c>
-      <c r="T191" s="45">
+      <c r="T191" s="30">
         <f t="shared" si="2"/>
         <v>-1677.7004180111801</v>
       </c>
@@ -16174,7 +16174,7 @@
       <c r="R192" s="21">
         <v>98.422248167768998</v>
       </c>
-      <c r="T192" s="45">
+      <c r="T192" s="30">
         <f t="shared" si="2"/>
         <v>-1677.72</v>
       </c>
@@ -16234,7 +16234,7 @@
       <c r="R193" s="21">
         <v>98.414854036381996</v>
       </c>
-      <c r="T193" s="45">
+      <c r="T193" s="30">
         <f t="shared" si="2"/>
         <v>-1677.72</v>
       </c>
@@ -16294,7 +16294,7 @@
       <c r="R194" s="27">
         <v>98.414311483150996</v>
       </c>
-      <c r="T194" s="45">
+      <c r="T194" s="30">
         <f t="shared" si="2"/>
         <v>-1677.72</v>
       </c>
@@ -16354,7 +16354,7 @@
       <c r="R195" s="21">
         <v>98.401555632649007</v>
       </c>
-      <c r="T195" s="45">
+      <c r="T195" s="30">
         <f t="shared" si="2"/>
         <v>-1677.6818299317999</v>
       </c>
@@ -16414,7 +16414,7 @@
       <c r="R196" s="21">
         <v>98.399117622272996</v>
       </c>
-      <c r="T196" s="45">
+      <c r="T196" s="30">
         <f t="shared" si="2"/>
         <v>-1677.6671535717301</v>
       </c>
@@ -16474,7 +16474,7 @@
       <c r="R197" s="21">
         <v>98.383569747856001</v>
       </c>
-      <c r="T197" s="45">
+      <c r="T197" s="30">
         <f t="shared" si="2"/>
         <v>-1677.5729071874</v>
       </c>
@@ -16534,7 +16534,7 @@
       <c r="R198" s="21">
         <v>98.368206657672999</v>
       </c>
-      <c r="T198" s="45">
+      <c r="T198" s="30">
         <f t="shared" si="2"/>
         <v>-1677.4786608030699</v>
       </c>
@@ -16594,7 +16594,7 @@
       <c r="R199" s="21">
         <v>98.353025079152999</v>
       </c>
-      <c r="T199" s="45">
+      <c r="T199" s="30">
         <f t="shared" si="2"/>
         <v>-1677.3844144187401</v>
       </c>
@@ -16654,7 +16654,7 @@
       <c r="R200" s="21">
         <v>98.338021816497999</v>
       </c>
-      <c r="T200" s="45">
+      <c r="T200" s="30">
         <f t="shared" si="2"/>
         <v>-1677.29016803441</v>
       </c>
@@ -16714,7 +16714,7 @@
       <c r="R201" s="21">
         <v>98.323193748449</v>
       </c>
-      <c r="T201" s="45">
+      <c r="T201" s="30">
         <f t="shared" si="2"/>
         <v>-1677.19592165007</v>
       </c>
@@ -16774,7 +16774,7 @@
       <c r="R202" s="21">
         <v>98.308537826120997</v>
       </c>
-      <c r="T202" s="45">
+      <c r="T202" s="30">
         <f t="shared" si="2"/>
         <v>-1677.1016752657399</v>
       </c>
@@ -16834,7 +16834,7 @@
       <c r="R203" s="21">
         <v>98.294051070926002</v>
       </c>
-      <c r="T203" s="45">
+      <c r="T203" s="30">
         <f t="shared" si="2"/>
         <v>-1677.0074288814101</v>
       </c>
@@ -16894,7 +16894,7 @@
       <c r="R204" s="21">
         <v>98.279730572551998</v>
       </c>
-      <c r="T204" s="45">
+      <c r="T204" s="30">
         <f t="shared" si="2"/>
         <v>-1676.91318249708</v>
       </c>
@@ -16954,7 +16954,7 @@
       <c r="R205" s="21">
         <v>98.265573487026998</v>
       </c>
-      <c r="T205" s="45">
+      <c r="T205" s="30">
         <f t="shared" si="2"/>
         <v>-1676.81893611275</v>
       </c>
@@ -17014,7 +17014,7 @@
       <c r="R206" s="21">
         <v>98.251577034833005</v>
       </c>
-      <c r="T206" s="45">
+      <c r="T206" s="30">
         <f t="shared" si="2"/>
         <v>-1676.7246897284199</v>
       </c>
@@ -17074,7 +17074,7 @@
       <c r="R207" s="21">
         <v>98.237738499098</v>
       </c>
-      <c r="T207" s="45">
+      <c r="T207" s="30">
         <f t="shared" si="2"/>
         <v>-1676.6304433440901</v>
       </c>
@@ -17134,7 +17134,7 @@
       <c r="R208" s="21">
         <v>98.224055223836999</v>
       </c>
-      <c r="T208" s="45">
+      <c r="T208" s="30">
         <f t="shared" si="2"/>
         <v>-1676.53619695975</v>
       </c>
@@ -17194,7 +17194,7 @@
       <c r="R209" s="21">
         <v>98.210524612260002</v>
       </c>
-      <c r="T209" s="45">
+      <c r="T209" s="30">
         <f t="shared" si="2"/>
         <v>-1676.4419505754199</v>
       </c>
@@ -17254,7 +17254,7 @@
       <c r="R210" s="21">
         <v>98.197144125132994</v>
       </c>
-      <c r="T210" s="45">
+      <c r="T210" s="30">
         <f t="shared" si="2"/>
         <v>-1676.3477041910901</v>
       </c>
@@ -17314,7 +17314,7 @@
       <c r="R211" s="21">
         <v>98.183911279189005</v>
       </c>
-      <c r="T211" s="45">
+      <c r="T211" s="30">
         <f t="shared" si="2"/>
         <v>-1676.25345780676</v>
       </c>
@@ -17374,7 +17374,7 @@
       <c r="R212" s="21">
         <v>98.170823645601999</v>
       </c>
-      <c r="T212" s="45">
+      <c r="T212" s="30">
         <f t="shared" si="2"/>
         <v>-1676.15921142243</v>
       </c>
@@ -17434,7 +17434,7 @@
       <c r="R213" s="21">
         <v>98.157878848498001</v>
       </c>
-      <c r="T213" s="45">
+      <c r="T213" s="30">
         <f t="shared" si="2"/>
         <v>-1676.0649650380999</v>
       </c>
@@ -17494,7 +17494,7 @@
       <c r="R214" s="21">
         <v>98.145074563524005</v>
       </c>
-      <c r="T214" s="45">
+      <c r="T214" s="30">
         <f t="shared" si="2"/>
         <v>-1675.9707186537701</v>
       </c>
@@ -17554,7 +17554,7 @@
       <c r="R215" s="21">
         <v>98.132408516458995</v>
       </c>
-      <c r="T215" s="45">
+      <c r="T215" s="30">
         <f t="shared" si="2"/>
         <v>-1675.87647226943</v>
       </c>
@@ -17614,7 +17614,7 @@
       <c r="R216" s="21">
         <v>98.119878481870003</v>
       </c>
-      <c r="T216" s="45">
+      <c r="T216" s="30">
         <f t="shared" si="2"/>
         <v>-1675.7822258850999</v>
       </c>
@@ -17674,7 +17674,7 @@
       <c r="R217" s="21">
         <v>98.107482281811997</v>
       </c>
-      <c r="T217" s="45">
+      <c r="T217" s="30">
         <f t="shared" si="2"/>
         <v>-1675.6879795007701</v>
       </c>
@@ -17734,7 +17734,7 @@
       <c r="R218" s="21">
         <v>98.095217784566998</v>
       </c>
-      <c r="T218" s="45">
+      <c r="T218" s="30">
         <f t="shared" ref="T218:T281" si="3">-E218</f>
         <v>-1675.59373311644</v>
       </c>
@@ -17794,7 +17794,7 @@
       <c r="R219" s="21">
         <v>98.083082903427993</v>
       </c>
-      <c r="T219" s="45">
+      <c r="T219" s="30">
         <f t="shared" si="3"/>
         <v>-1675.49948673211</v>
       </c>
@@ -17854,7 +17854,7 @@
       <c r="R220" s="21">
         <v>98.071075595516007</v>
       </c>
-      <c r="T220" s="45">
+      <c r="T220" s="30">
         <f t="shared" si="3"/>
         <v>-1675.4052403477799</v>
       </c>
@@ -17914,7 +17914,7 @@
       <c r="R221" s="21">
         <v>98.059193860633002</v>
       </c>
-      <c r="T221" s="45">
+      <c r="T221" s="30">
         <f t="shared" si="3"/>
         <v>-1675.3109939634501</v>
       </c>
@@ -17974,7 +17974,7 @@
       <c r="R222" s="21">
         <v>98.047435740159003</v>
       </c>
-      <c r="T222" s="45">
+      <c r="T222" s="30">
         <f t="shared" si="3"/>
         <v>-1675.21674757911</v>
       </c>
@@ -18034,7 +18034,7 @@
       <c r="R223" s="21">
         <v>98.035799315976007</v>
       </c>
-      <c r="T223" s="45">
+      <c r="T223" s="30">
         <f t="shared" si="3"/>
         <v>-1675.1225011947799</v>
       </c>
@@ -18094,7 +18094,7 @@
       <c r="R224" s="21">
         <v>98.024282709424</v>
       </c>
-      <c r="T224" s="45">
+      <c r="T224" s="30">
         <f t="shared" si="3"/>
         <v>-1675.0282548104501</v>
       </c>
@@ -18154,7 +18154,7 @@
       <c r="R225" s="21">
         <v>98.012884080296999</v>
       </c>
-      <c r="T225" s="45">
+      <c r="T225" s="30">
         <f t="shared" si="3"/>
         <v>-1674.93400842612</v>
       </c>
@@ -18214,7 +18214,7 @@
       <c r="R226" s="21">
         <v>98.001601625858996</v>
       </c>
-      <c r="T226" s="45">
+      <c r="T226" s="30">
         <f t="shared" si="3"/>
         <v>-1674.83976204179</v>
       </c>
@@ -18274,7 +18274,7 @@
       <c r="R227" s="21">
         <v>97.990433579900994</v>
       </c>
-      <c r="T227" s="45">
+      <c r="T227" s="30">
         <f t="shared" si="3"/>
         <v>-1674.7455156574599</v>
       </c>
@@ -18334,7 +18334,7 @@
       <c r="R228" s="21">
         <v>97.979378211816993</v>
       </c>
-      <c r="T228" s="45">
+      <c r="T228" s="30">
         <f t="shared" si="3"/>
         <v>-1674.6512692731301</v>
       </c>
@@ -18394,7 +18394,7 @@
       <c r="R229" s="21">
         <v>97.968433825716005</v>
       </c>
-      <c r="T229" s="45">
+      <c r="T229" s="30">
         <f t="shared" si="3"/>
         <v>-1674.55702288879</v>
       </c>
@@ -18454,7 +18454,7 @@
       <c r="R230" s="21">
         <v>97.957598759551004</v>
       </c>
-      <c r="T230" s="45">
+      <c r="T230" s="30">
         <f t="shared" si="3"/>
         <v>-1674.46277650446</v>
       </c>
@@ -18514,7 +18514,7 @@
       <c r="R231" s="21">
         <v>97.946871384282005</v>
       </c>
-      <c r="T231" s="45">
+      <c r="T231" s="30">
         <f t="shared" si="3"/>
         <v>-1674.3685301201299</v>
       </c>
@@ -18574,7 +18574,7 @@
       <c r="R232" s="21">
         <v>97.936250103063998</v>
       </c>
-      <c r="T232" s="45">
+      <c r="T232" s="30">
         <f t="shared" si="3"/>
         <v>-1674.2742837358001</v>
       </c>
@@ -18634,7 +18634,7 @@
       <c r="R233" s="21">
         <v>97.925733350448994</v>
       </c>
-      <c r="T233" s="45">
+      <c r="T233" s="30">
         <f t="shared" si="3"/>
         <v>-1674.18003735147</v>
       </c>
@@ -18694,7 +18694,7 @@
       <c r="R234" s="21">
         <v>97.915319591626996</v>
       </c>
-      <c r="T234" s="45">
+      <c r="T234" s="30">
         <f t="shared" si="3"/>
         <v>-1674.0857909671399</v>
       </c>
@@ -18754,7 +18754,7 @@
       <c r="R235" s="21">
         <v>97.905007321672002</v>
       </c>
-      <c r="T235" s="45">
+      <c r="T235" s="30">
         <f t="shared" si="3"/>
         <v>-1673.9915445828101</v>
       </c>
@@ -18814,7 +18814,7 @@
       <c r="R236" s="21">
         <v>97.894795064823995</v>
       </c>
-      <c r="T236" s="45">
+      <c r="T236" s="30">
         <f t="shared" si="3"/>
         <v>-1673.89729819847</v>
       </c>
@@ -18874,7 +18874,7 @@
       <c r="R237" s="21">
         <v>97.884681373785</v>
       </c>
-      <c r="T237" s="45">
+      <c r="T237" s="30">
         <f t="shared" si="3"/>
         <v>-1673.80305181414</v>
       </c>
@@ -18934,7 +18934,7 @@
       <c r="R238" s="21">
         <v>97.874664829036007</v>
       </c>
-      <c r="T238" s="45">
+      <c r="T238" s="30">
         <f t="shared" si="3"/>
         <v>-1673.7088054298099</v>
       </c>
@@ -18994,7 +18994,7 @@
       <c r="R239" s="21">
         <v>97.864744038173995</v>
       </c>
-      <c r="T239" s="45">
+      <c r="T239" s="30">
         <f t="shared" si="3"/>
         <v>-1673.6145590454801</v>
       </c>
@@ -19054,7 +19054,7 @@
       <c r="R240" s="21">
         <v>97.854917635267995</v>
       </c>
-      <c r="T240" s="45">
+      <c r="T240" s="30">
         <f t="shared" si="3"/>
         <v>-1673.52031266115</v>
       </c>
@@ -19114,7 +19114,7 @@
       <c r="R241" s="21">
         <v>97.845184280230995</v>
       </c>
-      <c r="T241" s="45">
+      <c r="T241" s="30">
         <f t="shared" si="3"/>
         <v>-1673.4260662768199</v>
       </c>
@@ -19174,7 +19174,7 @@
       <c r="R242" s="21">
         <v>97.835542658218003</v>
       </c>
-      <c r="T242" s="45">
+      <c r="T242" s="30">
         <f t="shared" si="3"/>
         <v>-1673.3318198924801</v>
       </c>
@@ -19234,7 +19234,7 @@
       <c r="R243" s="21">
         <v>97.825991479026996</v>
       </c>
-      <c r="T243" s="45">
+      <c r="T243" s="30">
         <f t="shared" si="3"/>
         <v>-1673.23757350815</v>
       </c>
@@ -19294,7 +19294,7 @@
       <c r="R244" s="21">
         <v>97.816529476529993</v>
       </c>
-      <c r="T244" s="45">
+      <c r="T244" s="30">
         <f t="shared" si="3"/>
         <v>-1673.14332712382</v>
       </c>
@@ -19354,7 +19354,7 @@
       <c r="R245" s="21">
         <v>97.807155408113005</v>
       </c>
-      <c r="T245" s="45">
+      <c r="T245" s="30">
         <f t="shared" si="3"/>
         <v>-1673.0490807394899</v>
       </c>
@@ -19414,7 +19414,7 @@
       <c r="R246" s="21">
         <v>97.797868054131996</v>
       </c>
-      <c r="T246" s="45">
+      <c r="T246" s="30">
         <f t="shared" si="3"/>
         <v>-1672.9548343551601</v>
       </c>
@@ -19474,7 +19474,7 @@
       <c r="R247" s="21">
         <v>97.788666217385995</v>
       </c>
-      <c r="T247" s="45">
+      <c r="T247" s="30">
         <f t="shared" si="3"/>
         <v>-1672.86058797083</v>
       </c>
@@ -19534,7 +19534,7 @@
       <c r="R248" s="21">
         <v>97.779548722599998</v>
       </c>
-      <c r="T248" s="45">
+      <c r="T248" s="30">
         <f t="shared" si="3"/>
         <v>-1672.7663415864999</v>
       </c>
@@ -19594,7 +19594,7 @@
       <c r="R249" s="21">
         <v>97.770514415931999</v>
       </c>
-      <c r="T249" s="45">
+      <c r="T249" s="30">
         <f t="shared" si="3"/>
         <v>-1672.6720952021601</v>
       </c>
@@ -19654,7 +19654,7 @@
       <c r="R250" s="21">
         <v>97.761562164482001</v>
       </c>
-      <c r="T250" s="45">
+      <c r="T250" s="30">
         <f t="shared" si="3"/>
         <v>-1672.57784881783</v>
       </c>
@@ -19714,7 +19714,7 @@
       <c r="R251" s="21">
         <v>97.752690855818997</v>
       </c>
-      <c r="T251" s="45">
+      <c r="T251" s="30">
         <f t="shared" si="3"/>
         <v>-1672.4836024335</v>
       </c>
@@ -19774,7 +19774,7 @@
       <c r="R252" s="21">
         <v>97.743899397524004</v>
       </c>
-      <c r="T252" s="45">
+      <c r="T252" s="30">
         <f t="shared" si="3"/>
         <v>-1672.3893560491699</v>
       </c>
@@ -19834,7 +19834,7 @@
       <c r="R253" s="21">
         <v>97.735186716737999</v>
       </c>
-      <c r="T253" s="45">
+      <c r="T253" s="30">
         <f t="shared" si="3"/>
         <v>-1672.2951096648401</v>
       </c>
@@ -19894,7 +19894,7 @@
       <c r="R254" s="21">
         <v>97.726551759732004</v>
       </c>
-      <c r="T254" s="45">
+      <c r="T254" s="30">
         <f t="shared" si="3"/>
         <v>-1672.20086328051</v>
       </c>
@@ -19954,7 +19954,7 @@
       <c r="R255" s="21">
         <v>97.717993491477998</v>
       </c>
-      <c r="T255" s="45">
+      <c r="T255" s="30">
         <f t="shared" si="3"/>
         <v>-1672.10661689618</v>
       </c>
@@ -20014,7 +20014,7 @@
       <c r="R256" s="21">
         <v>97.709510895237997</v>
       </c>
-      <c r="T256" s="45">
+      <c r="T256" s="30">
         <f t="shared" si="3"/>
         <v>-1672.0123705118399</v>
       </c>
@@ -20074,7 +20074,7 @@
       <c r="R257" s="21">
         <v>97.701102972160001</v>
       </c>
-      <c r="T257" s="45">
+      <c r="T257" s="30">
         <f t="shared" si="3"/>
         <v>-1671.9181241275101</v>
       </c>
@@ -20134,7 +20134,7 @@
       <c r="R258" s="21">
         <v>97.692768740888994</v>
       </c>
-      <c r="T258" s="45">
+      <c r="T258" s="30">
         <f t="shared" si="3"/>
         <v>-1671.82387774318</v>
       </c>
@@ -20194,7 +20194,7 @@
       <c r="R259" s="21">
         <v>97.684507237185997</v>
       </c>
-      <c r="T259" s="45">
+      <c r="T259" s="30">
         <f t="shared" si="3"/>
         <v>-1671.7296313588499</v>
       </c>
@@ -20254,7 +20254,7 @@
       <c r="R260" s="21">
         <v>97.676317513553997</v>
       </c>
-      <c r="T260" s="45">
+      <c r="T260" s="30">
         <f t="shared" si="3"/>
         <v>-1671.6353849745201</v>
       </c>
@@ -20314,7 +20314,7 @@
       <c r="R261" s="21">
         <v>97.668198638879005</v>
       </c>
-      <c r="T261" s="45">
+      <c r="T261" s="30">
         <f t="shared" si="3"/>
         <v>-1671.54113859019</v>
       </c>
@@ -20374,7 +20374,7 @@
       <c r="R262" s="21">
         <v>97.660149698073994</v>
       </c>
-      <c r="T262" s="45">
+      <c r="T262" s="30">
         <f t="shared" si="3"/>
         <v>-1671.44689220586</v>
       </c>
@@ -20434,7 +20434,7 @@
       <c r="R263" s="21">
         <v>97.652169791738999</v>
       </c>
-      <c r="T263" s="45">
+      <c r="T263" s="30">
         <f t="shared" si="3"/>
         <v>-1671.3526458215199</v>
       </c>
@@ -20494,7 +20494,7 @@
       <c r="R264" s="21">
         <v>97.644258035828003</v>
       </c>
-      <c r="T264" s="45">
+      <c r="T264" s="30">
         <f t="shared" si="3"/>
         <v>-1671.2583994371901</v>
       </c>
@@ -20554,7 +20554,7 @@
       <c r="R265" s="21">
         <v>97.636413561316004</v>
       </c>
-      <c r="T265" s="45">
+      <c r="T265" s="30">
         <f t="shared" si="3"/>
         <v>-1671.16415305286</v>
       </c>
@@ -20614,7 +20614,7 @@
       <c r="R266" s="21">
         <v>97.628635513890003</v>
       </c>
-      <c r="T266" s="45">
+      <c r="T266" s="30">
         <f t="shared" si="3"/>
         <v>-1671.0699066685299</v>
       </c>
@@ -20674,7 +20674,7 @@
       <c r="R267" s="21">
         <v>97.620923053629994</v>
       </c>
-      <c r="T267" s="45">
+      <c r="T267" s="30">
         <f t="shared" si="3"/>
         <v>-1670.9756602842001</v>
       </c>
@@ -20734,7 +20734,7 @@
       <c r="R268" s="21">
         <v>97.613275354717004</v>
       </c>
-      <c r="T268" s="45">
+      <c r="T268" s="30">
         <f t="shared" si="3"/>
         <v>-1670.88141389987</v>
       </c>
@@ -20794,7 +20794,7 @@
       <c r="R269" s="21">
         <v>97.605691605130005</v>
       </c>
-      <c r="T269" s="45">
+      <c r="T269" s="30">
         <f t="shared" si="3"/>
         <v>-1670.78716751554</v>
       </c>
@@ -20854,7 +20854,7 @@
       <c r="R270" s="21">
         <v>97.598171006363998</v>
       </c>
-      <c r="T270" s="45">
+      <c r="T270" s="30">
         <f t="shared" si="3"/>
         <v>-1670.6929211311999</v>
       </c>
@@ -20914,7 +20914,7 @@
       <c r="R271" s="21">
         <v>97.590712773148994</v>
       </c>
-      <c r="T271" s="45">
+      <c r="T271" s="30">
         <f t="shared" si="3"/>
         <v>-1670.5986747468701</v>
       </c>
@@ -20974,7 +20974,7 @@
       <c r="R272" s="21">
         <v>97.583316133175003</v>
       </c>
-      <c r="T272" s="45">
+      <c r="T272" s="30">
         <f t="shared" si="3"/>
         <v>-1670.50442836254</v>
       </c>
@@ -21034,7 +21034,7 @@
       <c r="R273" s="21">
         <v>97.575980326830006</v>
       </c>
-      <c r="T273" s="45">
+      <c r="T273" s="30">
         <f t="shared" si="3"/>
         <v>-1670.4101819782099</v>
       </c>
@@ -21094,7 +21094,7 @@
       <c r="R274" s="21">
         <v>97.568704606935995</v>
       </c>
-      <c r="T274" s="45">
+      <c r="T274" s="30">
         <f t="shared" si="3"/>
         <v>-1670.3159355938801</v>
       </c>
@@ -21154,7 +21154,7 @@
       <c r="R275" s="21">
         <v>97.561488238497006</v>
       </c>
-      <c r="T275" s="45">
+      <c r="T275" s="30">
         <f t="shared" si="3"/>
         <v>-1670.22168920955</v>
       </c>
@@ -21214,7 +21214,7 @@
       <c r="R276" s="21">
         <v>97.554330498452998</v>
       </c>
-      <c r="T276" s="45">
+      <c r="T276" s="30">
         <f t="shared" si="3"/>
         <v>-1670.12744282522</v>
       </c>
@@ -21274,7 +21274,7 @@
       <c r="R277" s="21">
         <v>97.547230675438001</v>
       </c>
-      <c r="T277" s="45">
+      <c r="T277" s="30">
         <f t="shared" si="3"/>
         <v>-1670.0331964408799</v>
       </c>
@@ -21334,7 +21334,7 @@
       <c r="R278" s="21">
         <v>97.540188069544996</v>
       </c>
-      <c r="T278" s="45">
+      <c r="T278" s="30">
         <f t="shared" si="3"/>
         <v>-1669.9389500565501</v>
       </c>
@@ -21394,7 +21394,7 @@
       <c r="R279" s="21">
         <v>97.533201992094007</v>
       </c>
-      <c r="T279" s="45">
+      <c r="T279" s="30">
         <f t="shared" si="3"/>
         <v>-1669.84470367222</v>
       </c>
@@ -21454,7 +21454,7 @@
       <c r="R280" s="21">
         <v>97.526271765412005</v>
       </c>
-      <c r="T280" s="45">
+      <c r="T280" s="30">
         <f t="shared" si="3"/>
         <v>-1669.75045728789</v>
       </c>
@@ -21514,7 +21514,7 @@
       <c r="R281" s="21">
         <v>97.519396722609002</v>
       </c>
-      <c r="T281" s="45">
+      <c r="T281" s="30">
         <f t="shared" si="3"/>
         <v>-1669.6562109035599</v>
       </c>
@@ -21574,7 +21574,7 @@
       <c r="R282" s="21">
         <v>97.512576207370003</v>
       </c>
-      <c r="T282" s="45">
+      <c r="T282" s="30">
         <f t="shared" ref="T282:T291" si="4">-E282</f>
         <v>-1669.5619645192301</v>
       </c>
@@ -21634,7 +21634,7 @@
       <c r="R283" s="21">
         <v>97.505809573742994</v>
       </c>
-      <c r="T283" s="45">
+      <c r="T283" s="30">
         <f t="shared" si="4"/>
         <v>-1669.4677181349</v>
       </c>
@@ -21694,7 +21694,7 @@
       <c r="R284" s="21">
         <v>97.499096185932999</v>
       </c>
-      <c r="T284" s="45">
+      <c r="T284" s="30">
         <f t="shared" si="4"/>
         <v>-1669.3734717505599</v>
       </c>
@@ -21754,7 +21754,7 @@
       <c r="R285" s="21">
         <v>97.492435418108002</v>
       </c>
-      <c r="T285" s="45">
+      <c r="T285" s="30">
         <f t="shared" si="4"/>
         <v>-1669.2792253662301</v>
       </c>
@@ -21814,7 +21814,7 @@
       <c r="R286" s="21">
         <v>97.485826654204999</v>
       </c>
-      <c r="T286" s="45">
+      <c r="T286" s="30">
         <f t="shared" si="4"/>
         <v>-1669.1849789819</v>
       </c>
@@ -21874,7 +21874,7 @@
       <c r="R287" s="21">
         <v>97.479269287731995</v>
       </c>
-      <c r="T287" s="45">
+      <c r="T287" s="30">
         <f t="shared" si="4"/>
         <v>-1669.09073259757</v>
       </c>
@@ -21934,7 +21934,7 @@
       <c r="R288" s="21">
         <v>97.472762721595004</v>
       </c>
-      <c r="T288" s="45">
+      <c r="T288" s="30">
         <f t="shared" si="4"/>
         <v>-1668.9964862132399</v>
       </c>
@@ -21994,7 +21994,7 @@
       <c r="R289" s="21">
         <v>97.466306367906</v>
       </c>
-      <c r="T289" s="45">
+      <c r="T289" s="30">
         <f t="shared" si="4"/>
         <v>-1668.9022398289101</v>
       </c>
@@ -22054,7 +22054,7 @@
       <c r="R290" s="21">
         <v>97.459899647813003</v>
       </c>
-      <c r="T290" s="45">
+      <c r="T290" s="30">
         <f t="shared" si="4"/>
         <v>-1668.80799344458</v>
       </c>
@@ -22114,70 +22114,70 @@
       <c r="R291" s="27">
         <v>97.453962292697994</v>
       </c>
-      <c r="T291" s="45">
+      <c r="T291" s="30">
         <f t="shared" si="4"/>
         <v>-1668.72</v>
       </c>
     </row>
     <row r="295" spans="1:20" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="32" t="s">
+      <c r="A295" s="42" t="s">
         <v>727</v>
       </c>
-      <c r="B295" s="33"/>
-      <c r="C295" s="34" t="s">
+      <c r="B295" s="43"/>
+      <c r="C295" s="44" t="s">
         <v>645</v>
       </c>
-      <c r="D295" s="33"/>
-      <c r="E295" s="33"/>
-      <c r="F295" s="33"/>
-      <c r="G295" s="33"/>
-      <c r="H295" s="33"/>
-      <c r="I295" s="33"/>
-      <c r="J295" s="33"/>
-      <c r="K295" s="33"/>
-      <c r="L295" s="33"/>
+      <c r="D295" s="43"/>
+      <c r="E295" s="43"/>
+      <c r="F295" s="43"/>
+      <c r="G295" s="43"/>
+      <c r="H295" s="43"/>
+      <c r="I295" s="43"/>
+      <c r="J295" s="43"/>
+      <c r="K295" s="43"/>
+      <c r="L295" s="43"/>
     </row>
     <row r="298" spans="1:20" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="32" t="s">
+      <c r="A298" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="B298" s="33"/>
-      <c r="C298" s="34" t="s">
+      <c r="B298" s="43"/>
+      <c r="C298" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="D298" s="33"/>
-      <c r="E298" s="33"/>
-      <c r="F298" s="33"/>
-      <c r="G298" s="33"/>
-      <c r="H298" s="33"/>
-      <c r="I298" s="33"/>
-      <c r="J298" s="33"/>
-      <c r="K298" s="33"/>
-      <c r="L298" s="33"/>
+      <c r="D298" s="43"/>
+      <c r="E298" s="43"/>
+      <c r="F298" s="43"/>
+      <c r="G298" s="43"/>
+      <c r="H298" s="43"/>
+      <c r="I298" s="43"/>
+      <c r="J298" s="43"/>
+      <c r="K298" s="43"/>
+      <c r="L298" s="43"/>
     </row>
     <row r="299" spans="1:20" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="32" t="s">
+      <c r="A299" s="42" t="s">
         <v>729</v>
       </c>
-      <c r="B299" s="33"/>
-      <c r="C299" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D299" s="33"/>
-      <c r="E299" s="33"/>
-      <c r="F299" s="33"/>
-      <c r="G299" s="33"/>
-      <c r="H299" s="33"/>
-      <c r="I299" s="33"/>
-      <c r="J299" s="33"/>
-      <c r="K299" s="33"/>
-      <c r="L299" s="33"/>
+      <c r="B299" s="43"/>
+      <c r="C299" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D299" s="43"/>
+      <c r="E299" s="43"/>
+      <c r="F299" s="43"/>
+      <c r="G299" s="43"/>
+      <c r="H299" s="43"/>
+      <c r="I299" s="43"/>
+      <c r="J299" s="43"/>
+      <c r="K299" s="43"/>
+      <c r="L299" s="43"/>
     </row>
     <row r="300" spans="1:20" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A300" s="35" t="s">
+      <c r="A300" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="B300" s="35" t="s">
+      <c r="B300" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C300" s="18" t="s">
@@ -22201,24 +22201,24 @@
       <c r="I300" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="J300" s="35" t="s">
+      <c r="J300" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="K300" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L300" s="35" t="s">
+      <c r="K300" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L300" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="M300" s="35" t="s">
+      <c r="M300" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="301" spans="1:20" s="22" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B301" s="31"/>
+      <c r="A301" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301" s="41"/>
       <c r="C301" s="24">
         <v>1</v>
       </c>
@@ -22240,20 +22240,20 @@
       <c r="I301" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J301" s="30" t="s">
+      <c r="J301" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="K301" s="31"/>
-      <c r="L301" s="30" t="s">
+      <c r="K301" s="41"/>
+      <c r="L301" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="M301" s="31"/>
+      <c r="M301" s="41"/>
     </row>
     <row r="302" spans="1:20" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B302" s="31"/>
+      <c r="A302" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B302" s="41"/>
       <c r="C302" s="24">
         <v>1</v>
       </c>
@@ -22275,20 +22275,20 @@
       <c r="I302" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J302" s="30" t="s">
+      <c r="J302" s="40" t="s">
         <v>660</v>
       </c>
-      <c r="K302" s="31"/>
-      <c r="L302" s="30" t="s">
+      <c r="K302" s="41"/>
+      <c r="L302" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="M302" s="31"/>
+      <c r="M302" s="41"/>
     </row>
     <row r="303" spans="1:20" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B303" s="31"/>
+      <c r="A303" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B303" s="41"/>
       <c r="C303" s="24">
         <v>1</v>
       </c>
@@ -22310,20 +22310,20 @@
       <c r="I303" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J303" s="30" t="s">
+      <c r="J303" s="40" t="s">
         <v>661</v>
       </c>
-      <c r="K303" s="31"/>
-      <c r="L303" s="30" t="s">
+      <c r="K303" s="41"/>
+      <c r="L303" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="M303" s="31"/>
+      <c r="M303" s="41"/>
     </row>
     <row r="304" spans="1:20" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B304" s="31"/>
+      <c r="A304" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B304" s="41"/>
       <c r="C304" s="24">
         <v>1</v>
       </c>
@@ -22345,20 +22345,20 @@
       <c r="I304" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J304" s="30" t="s">
+      <c r="J304" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="K304" s="31"/>
-      <c r="L304" s="30" t="s">
+      <c r="K304" s="41"/>
+      <c r="L304" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="M304" s="31"/>
+      <c r="M304" s="41"/>
     </row>
     <row r="305" spans="1:13" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B305" s="31"/>
+      <c r="A305" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305" s="41"/>
       <c r="C305" s="24">
         <v>1</v>
       </c>
@@ -22380,20 +22380,20 @@
       <c r="I305" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J305" s="30" t="s">
+      <c r="J305" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="K305" s="31"/>
-      <c r="L305" s="30" t="s">
+      <c r="K305" s="41"/>
+      <c r="L305" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="M305" s="31"/>
+      <c r="M305" s="41"/>
     </row>
     <row r="306" spans="1:13" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B306" s="31"/>
+      <c r="A306" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B306" s="41"/>
       <c r="C306" s="24">
         <v>1</v>
       </c>
@@ -22415,20 +22415,20 @@
       <c r="I306" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J306" s="30" t="s">
+      <c r="J306" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="K306" s="31"/>
-      <c r="L306" s="30" t="s">
+      <c r="K306" s="41"/>
+      <c r="L306" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="M306" s="31"/>
+      <c r="M306" s="41"/>
     </row>
     <row r="307" spans="1:13" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B307" s="31"/>
+      <c r="A307" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" s="41"/>
       <c r="C307" s="24">
         <v>1</v>
       </c>
@@ -22450,20 +22450,20 @@
       <c r="I307" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J307" s="30" t="s">
+      <c r="J307" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="K307" s="31"/>
-      <c r="L307" s="30" t="s">
+      <c r="K307" s="41"/>
+      <c r="L307" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="M307" s="31"/>
+      <c r="M307" s="41"/>
     </row>
     <row r="308" spans="1:13" s="22" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B308" s="31"/>
+      <c r="A308" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B308" s="41"/>
       <c r="C308" s="24">
         <v>1</v>
       </c>
@@ -22485,80 +22485,38 @@
       <c r="I308" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J308" s="30" t="s">
+      <c r="J308" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="K308" s="31"/>
-      <c r="L308" s="30" t="s">
+      <c r="K308" s="41"/>
+      <c r="L308" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="M308" s="31"/>
+      <c r="M308" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="J308:K308"/>
+    <mergeCell ref="L308:M308"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="J306:K306"/>
+    <mergeCell ref="L306:M306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="J307:K307"/>
+    <mergeCell ref="L307:M307"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="L304:M304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="L305:M305"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="J302:K302"/>
+    <mergeCell ref="L302:M302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="J303:K303"/>
+    <mergeCell ref="L303:M303"/>
     <mergeCell ref="A301:B301"/>
     <mergeCell ref="J301:K301"/>
     <mergeCell ref="L301:M301"/>
@@ -22573,27 +22531,69 @@
     <mergeCell ref="A300:B300"/>
     <mergeCell ref="J300:K300"/>
     <mergeCell ref="L300:M300"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="J302:K302"/>
-    <mergeCell ref="L302:M302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="J303:K303"/>
-    <mergeCell ref="L303:M303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="L304:M304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="L305:M305"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="J308:K308"/>
-    <mergeCell ref="L308:M308"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="J306:K306"/>
-    <mergeCell ref="L306:M306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="J307:K307"/>
-    <mergeCell ref="L307:M307"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.48958333333333298" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" fitToHeight="0" orientation="portrait" r:id="rId1"/>
